--- a/large/resultsplanning.xlsx
+++ b/large/resultsplanning.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
+    <workbookView xWindow="4800" yWindow="1060" windowWidth="33600" windowHeight="18940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>Scenarios</t>
   </si>
@@ -74,10 +74,31 @@
     <t>Timed out (0.5%)</t>
   </si>
   <si>
-    <t>Timed out</t>
-  </si>
-  <si>
     <t xml:space="preserve">(5,1) </t>
+  </si>
+  <si>
+    <t>AlphaECP s(gap)</t>
+  </si>
+  <si>
+    <t>SBB s(gap)</t>
+  </si>
+  <si>
+    <t>DICOPT s(gap)</t>
+  </si>
+  <si>
+    <t>Timed out(2%)</t>
+  </si>
+  <si>
+    <t>Timed out(19%)</t>
+  </si>
+  <si>
+    <t>Timed out(40%)</t>
+  </si>
+  <si>
+    <t>Timed out(0.2%)</t>
+  </si>
+  <si>
+    <t>Timed out (2%)</t>
   </si>
 </sst>
 </file>
@@ -430,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,11 +464,13 @@
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,14 +486,23 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>3</v>
       </c>
@@ -487,13 +519,22 @@
         <v>338</v>
       </c>
       <c r="F2" s="3">
+        <v>6</v>
+      </c>
+      <c r="G2" s="3">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3">
+        <v>7</v>
+      </c>
+      <c r="L2" s="3">
         <v>2</v>
       </c>
-      <c r="G2" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>9</v>
       </c>
@@ -510,13 +551,22 @@
         <v>998</v>
       </c>
       <c r="F3" s="3">
+        <v>81</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="3">
+        <v>9</v>
+      </c>
+      <c r="K3" s="3">
+        <v>7</v>
+      </c>
+      <c r="L3" s="3">
         <v>24</v>
       </c>
-      <c r="G3" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>27</v>
       </c>
@@ -533,13 +583,22 @@
         <v>2978</v>
       </c>
       <c r="F4" s="3">
+        <v>3530</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="3">
+        <v>96</v>
+      </c>
+      <c r="K4" s="3">
+        <v>67</v>
+      </c>
+      <c r="L4" s="3">
         <v>308</v>
       </c>
-      <c r="G4" s="3">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>81</v>
       </c>
@@ -556,13 +615,22 @@
         <v>8918</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>3</v>
       </c>
@@ -602,7 +670,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -619,10 +687,10 @@
         <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>27</v>
       </c>
@@ -642,7 +710,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>81</v>
       </c>
